--- a/public/downloads/template_hss.xlsx
+++ b/public/downloads/template_hss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webhss\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA006C6-354F-48A6-A1B5-1B3463B6CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511BF75-D68E-490F-8C14-D276088189BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5358" yWindow="2178" windowWidth="17280" windowHeight="8994" xr2:uid="{E6A33FEB-ACBD-4834-B40F-0EAD8F8857FE}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" xr2:uid="{E6A33FEB-ACBD-4834-B40F-0EAD8F8857FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ship from</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>tipe truck</t>
+  </si>
+  <si>
+    <t>ongkos</t>
+  </si>
+  <si>
+    <t>sangu</t>
   </si>
 </sst>
 </file>
@@ -398,13 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE42C74-9530-494A-AA09-D465FA9F9CA7}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -416,6 +424,12 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/template_hss.xlsx
+++ b/public/downloads/template_hss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webhss\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511BF75-D68E-490F-8C14-D276088189BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEA6CD-C4B1-4AF5-BA58-7686C0ADCA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" xr2:uid="{E6A33FEB-ACBD-4834-B40F-0EAD8F8857FE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{E6A33FEB-ACBD-4834-B40F-0EAD8F8857FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ship from</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>sangu</t>
+  </si>
+  <si>
+    <t>Jamrud</t>
+  </si>
+  <si>
+    <t>SBY-10</t>
+  </si>
+  <si>
+    <t>BLITAR</t>
   </si>
 </sst>
 </file>
@@ -404,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE42C74-9530-494A-AA09-D465FA9F9CA7}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -430,6 +439,26 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
